--- a/artfynd/A 41283-2025 artfynd.xlsx
+++ b/artfynd/A 41283-2025 artfynd.xlsx
@@ -1265,7 +1265,7 @@
         <v>128519866</v>
       </c>
       <c r="B8" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
